--- a/Docs/Прототип перекрестка.xlsx
+++ b/Docs/Прототип перекрестка.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppDocs\GitHub\RoadRingSim\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1906,7 +1906,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+      <selection activeCell="AD10" sqref="AD6:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка.xlsx
+++ b/Docs/Прототип перекрестка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Малый" sheetId="1" r:id="rId1"/>
@@ -5369,16 +5369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
+      <xdr:rowOff>168984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>535</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>17120</xdr:rowOff>
+      <xdr:rowOff>178484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5395,8 +5395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="4960620"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="3003176" y="5063713"/>
+          <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5407,16 +5407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>535</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1880</xdr:rowOff>
+      <xdr:rowOff>181175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5433,8 +5433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1135380"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="3003176" y="926951"/>
+          <a:ext cx="197759" cy="195518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5788,14 +5788,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>535</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5813,8 +5813,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="4000500"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="5074023" y="3012141"/>
+          <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5825,16 +5825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9500</xdr:rowOff>
+      <xdr:colOff>535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5851,8 +5851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="2095500"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="932329" y="3030071"/>
+          <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7759,13 +7759,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:colOff>26895</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>186914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18465</xdr:colOff>
+      <xdr:colOff>36395</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>8155</xdr:rowOff>
     </xdr:to>
@@ -7784,7 +7784,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="950259" y="3952090"/>
+          <a:off x="968189" y="3952090"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7834,16 +7834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>184225</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4931</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>40789</xdr:rowOff>
+      <xdr:rowOff>121471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>5466</xdr:colOff>
+      <xdr:colOff>14431</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50289</xdr:rowOff>
+      <xdr:rowOff>130971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7860,7 +7860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3949401" y="5312036"/>
+          <a:off x="3958366" y="5392718"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7910,16 +7910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>3586</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>10845</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23395</xdr:rowOff>
+      <xdr:colOff>12550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19809</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7936,7 +7936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4898315" y="3967330"/>
+          <a:off x="5095538" y="3008107"/>
           <a:ext cx="195518" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7948,15 +7948,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170864</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>27429</xdr:colOff>
-      <xdr:row>6</xdr:row>
       <xdr:rowOff>179829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7974,7 +7974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971364" y="1111623"/>
+          <a:off x="2985246" y="923364"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7987,13 +7987,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
+      <xdr:colOff>177951</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>3586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>17121</xdr:colOff>
+      <xdr:colOff>187451</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>10845</xdr:rowOff>
     </xdr:to>
@@ -8012,7 +8012,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5278868" y="2074433"/>
+          <a:off x="5449198" y="2074433"/>
           <a:ext cx="197759" cy="195518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8024,16 +8024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6275</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>177140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18464</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8050,7 +8050,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050228" y="4903693"/>
+          <a:off x="3018416" y="5074023"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8063,15 +8063,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>184226</xdr:colOff>
+      <xdr:colOff>31826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41325</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5466</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17120</xdr:rowOff>
+      <xdr:rowOff>142626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8088,7 +8088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749002" y="3961055"/>
+          <a:off x="596602" y="3898302"/>
           <a:ext cx="197758" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8100,16 +8100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
+      <xdr:colOff>179830</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>181174</xdr:rowOff>
+      <xdr:rowOff>10845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8126,7 +8126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2070847" y="738692"/>
+          <a:off x="2052918" y="568363"/>
           <a:ext cx="197759" cy="195517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8139,15 +8139,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>166295</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:colOff>4931</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>175795</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152935</xdr:rowOff>
+      <xdr:colOff>14431</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8164,7 +8164,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1107589" y="2026023"/>
+          <a:off x="946225" y="3021106"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9995,16 +9995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8963</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8962</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>18463</xdr:colOff>
+      <xdr:rowOff>168984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18462</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>26085</xdr:rowOff>
+      <xdr:rowOff>178484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10021,7 +10021,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2079810" y="4911314"/>
+          <a:off x="3021103" y="5063713"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10033,16 +10033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1880</xdr:rowOff>
+      <xdr:rowOff>181174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10059,8 +10059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1135380"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="3012141" y="926950"/>
+          <a:ext cx="197759" cy="195518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10148,15 +10148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>30482</xdr:colOff>
+      <xdr:colOff>3587</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>166297</xdr:rowOff>
+      <xdr:rowOff>175262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>37741</xdr:colOff>
+      <xdr:colOff>10846</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>175797</xdr:rowOff>
+      <xdr:rowOff>184762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10173,7 +10173,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3983917" y="5061026"/>
+          <a:off x="3957022" y="5069991"/>
           <a:ext cx="195518" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10185,16 +10185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>36393</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9502</xdr:rowOff>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>18464</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10211,7 +10211,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4921622" y="3953437"/>
+          <a:off x="5091952" y="3003177"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10262,15 +10262,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>185570</xdr:colOff>
+      <xdr:colOff>176605</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6811</xdr:colOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186105</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>36395</xdr:rowOff>
+      <xdr:rowOff>9501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10287,7 +10287,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="938605" y="3980330"/>
+          <a:off x="929640" y="3953436"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10451,16 +10451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161366</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>179829</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>170866</xdr:rowOff>
+      <xdr:colOff>535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10477,7 +10477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111623" y="2043954"/>
+          <a:off x="932329" y="3003178"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12384,16 +12384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>8963</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>188257</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142091</xdr:rowOff>
+      <xdr:rowOff>142090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>18463</xdr:colOff>
+      <xdr:colOff>9498</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>151591</xdr:rowOff>
+      <xdr:rowOff>151590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12410,7 +12410,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962398" y="5036820"/>
+          <a:off x="3953433" y="5036819"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12422,16 +12422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:rowOff>3586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1880</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12448,8 +12448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1135380"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="3012141" y="944880"/>
+          <a:ext cx="197759" cy="195518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12536,16 +12536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12552</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19811</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30482</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>184762</xdr:rowOff>
+      <xdr:rowOff>184225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37741</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12562,7 +12562,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2083399" y="4881732"/>
+          <a:off x="3042623" y="5078954"/>
           <a:ext cx="195518" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12802,15 +12802,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>8963</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>18463</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12828,7 +12828,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4903692" y="3953434"/>
+          <a:off x="5091951" y="3012140"/>
           <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12840,16 +12840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161366</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>179829</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>170866</xdr:rowOff>
+      <xdr:colOff>535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12866,8 +12866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1122829" y="2066366"/>
-          <a:ext cx="200000" cy="200000"/>
+          <a:off x="932329" y="3003177"/>
+          <a:ext cx="197759" cy="197759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15295,7 +15295,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16571,8 +16571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17849,7 +17849,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19125,8 +19125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP31" sqref="AP31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Прототип перекрестка.xlsx
+++ b/Docs/Прототип перекрестка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Малый" sheetId="1" r:id="rId1"/>
@@ -14017,8 +14017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF32" sqref="A1:AF32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16571,8 +16571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
